--- a/templates/plantilla_horario_grupos.xlsx
+++ b/templates/plantilla_horario_grupos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\cargaHoraria\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52065F5-E4EE-40F0-A9A7-9A6502F60504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A88F5A7-97AE-4055-AE81-CB78F3867694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HORARIO BLANCO" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t xml:space="preserve">SELLO DELEGACIÓN ADMINISTRATIVA                                         </t>
   </si>
   <si>
-    <t>PROFESOR(A) DE ASIGNATURA DETERMINADO</t>
-  </si>
-  <si>
     <t>COMISIÓN ACADÉMICA DICTAMINADORA</t>
   </si>
   <si>
@@ -130,10 +127,13 @@
     <t>SABADO</t>
   </si>
   <si>
-    <t>HORARIO CUATRIMESTRAL ENERO - ABRIL 2025</t>
+    <t>Nombre del grupo:</t>
   </si>
   <si>
-    <t>Nombre del grupo:</t>
+    <t>HORARIO CUATRIMESTRAL MAYO - AGOSTO 2025</t>
+  </si>
+  <si>
+    <t>PROFESOR(A) DE ASIGNATURA</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -771,11 +771,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,19 +797,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,6 +839,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,19 +899,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -954,34 +979,19 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2303,26 +2313,26 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="6" width="40.44140625" customWidth="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1"/>
-    <col min="8" max="26" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="6" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
+    <col min="8" max="26" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+    <row r="1" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2343,16 +2353,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2373,18 +2383,18 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>30</v>
+    <row r="3" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>28</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2405,16 +2415,16 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="15" t="s">
+    <row r="4" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2435,27 +2445,27 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>28</v>
+      <c r="G5" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2477,14 +2487,14 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2505,16 +2515,16 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2535,14 +2545,14 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+    <row r="8" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2563,14 +2573,14 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2591,16 +2601,16 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2621,14 +2631,14 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+    <row r="11" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2649,14 +2659,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2677,16 +2687,16 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2707,14 +2717,14 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+    <row r="14" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2735,14 +2745,14 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2763,16 +2773,16 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:26" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2793,14 +2803,14 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+    <row r="17" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2821,14 +2831,14 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2849,16 +2859,16 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2879,14 +2889,14 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+    <row r="20" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2907,14 +2917,14 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2935,16 +2945,16 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2965,14 +2975,14 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+    <row r="23" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2993,14 +3003,14 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3021,16 +3031,16 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3051,14 +3061,14 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+    <row r="26" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3079,14 +3089,14 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3107,16 +3117,16 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3137,14 +3147,14 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+    <row r="29" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3165,14 +3175,14 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3193,16 +3203,16 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:26" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3223,14 +3233,14 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+    <row r="32" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3251,14 +3261,14 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+    <row r="33" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3279,16 +3289,16 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3309,14 +3319,14 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+    <row r="35" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -3337,14 +3347,14 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+    <row r="36" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3365,16 +3375,16 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -3395,14 +3405,14 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+    <row r="38" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3423,14 +3433,14 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+    <row r="39" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3451,16 +3461,16 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:26" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3481,14 +3491,14 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+    <row r="41" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3509,14 +3519,14 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+    <row r="42" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3537,16 +3547,16 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3567,14 +3577,14 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+    <row r="44" spans="1:26" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3595,14 +3605,14 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
+    <row r="45" spans="1:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3623,14 +3633,14 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
+    <row r="46" spans="1:26" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -3651,20 +3661,20 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="49" t="s">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="30" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="50"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3685,14 +3695,14 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="51"/>
+    <row r="48" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="59"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3713,16 +3723,16 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="29"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -3743,14 +3753,14 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
+    <row r="50" spans="1:26" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -3771,20 +3781,20 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="30" t="s">
+      <c r="B51" s="65"/>
+      <c r="C51" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="31"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="58"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3805,14 +3815,14 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="74"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3833,14 +3843,14 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3861,14 +3871,14 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="74"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -3889,14 +3899,14 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="68"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3917,7 +3927,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3945,7 +3955,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3973,7 +3983,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4001,7 +4011,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4029,7 +4039,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4057,7 +4067,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4085,7 +4095,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4113,7 +4123,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4141,7 +4151,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4169,7 +4179,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4197,7 +4207,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4225,7 +4235,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4253,7 +4263,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4281,7 +4291,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4309,7 +4319,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4337,7 +4347,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4365,7 +4375,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4393,7 +4403,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4421,7 +4431,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4449,7 +4459,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4477,7 +4487,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4505,7 +4515,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4533,7 +4543,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4561,7 +4571,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4589,7 +4599,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4617,7 +4627,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4645,7 +4655,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4673,7 +4683,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4701,7 +4711,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4729,7 +4739,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4757,7 +4767,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4785,7 +4795,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4813,7 +4823,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4841,7 +4851,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4869,7 +4879,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4897,7 +4907,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4925,7 +4935,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4953,7 +4963,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4981,7 +4991,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5009,7 +5019,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5037,7 +5047,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5065,7 +5075,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5093,7 +5103,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5121,7 +5131,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5149,7 +5159,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5177,7 +5187,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5205,7 +5215,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5233,7 +5243,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5261,7 +5271,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5289,7 +5299,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5317,7 +5327,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5345,7 +5355,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5373,7 +5383,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5401,7 +5411,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5429,7 +5439,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5457,7 +5467,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5485,7 +5495,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5513,7 +5523,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5541,7 +5551,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5569,7 +5579,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5597,7 +5607,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5625,7 +5635,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5653,7 +5663,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5681,7 +5691,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5709,7 +5719,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5737,7 +5747,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5765,7 +5775,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5793,7 +5803,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5821,7 +5831,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5849,7 +5859,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5877,7 +5887,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5905,7 +5915,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5933,7 +5943,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5961,7 +5971,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5989,7 +5999,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6017,7 +6027,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6045,7 +6055,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6073,7 +6083,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6101,7 +6111,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6129,7 +6139,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6157,7 +6167,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6185,7 +6195,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6213,7 +6223,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6241,7 +6251,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6269,7 +6279,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6297,7 +6307,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6325,7 +6335,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6353,7 +6363,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6381,7 +6391,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6409,7 +6419,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6437,7 +6447,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6465,7 +6475,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6493,7 +6503,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6521,7 +6531,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6549,7 +6559,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6577,7 +6587,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6605,7 +6615,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6633,7 +6643,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6661,7 +6671,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6689,7 +6699,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6717,7 +6727,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6745,7 +6755,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6773,7 +6783,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6801,7 +6811,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6829,7 +6839,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6857,7 +6867,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6885,7 +6895,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6913,7 +6923,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6941,7 +6951,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6969,7 +6979,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6997,7 +7007,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7025,7 +7035,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7053,7 +7063,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7081,7 +7091,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7109,7 +7119,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7137,7 +7147,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7165,7 +7175,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7193,7 +7203,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7221,7 +7231,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7249,7 +7259,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7277,7 +7287,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7305,7 +7315,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7333,7 +7343,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7361,7 +7371,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7389,7 +7399,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7417,7 +7427,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7445,7 +7455,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7473,7 +7483,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7501,7 +7511,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7529,7 +7539,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7557,7 +7567,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7585,7 +7595,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7613,7 +7623,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7641,7 +7651,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7669,7 +7679,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7697,7 +7707,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7725,7 +7735,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7753,7 +7763,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7781,7 +7791,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7809,7 +7819,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7837,7 +7847,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7865,7 +7875,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7893,7 +7903,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7921,7 +7931,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7949,7 +7959,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7977,7 +7987,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -8005,7 +8015,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -8033,7 +8043,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -8061,7 +8071,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -8089,7 +8099,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -8117,7 +8127,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -8145,7 +8155,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -8173,7 +8183,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -8201,7 +8211,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8229,7 +8239,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8257,7 +8267,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8285,7 +8295,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8313,7 +8323,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8341,7 +8351,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8369,7 +8379,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8397,7 +8407,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8425,7 +8435,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8453,7 +8463,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8481,7 +8491,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8509,7 +8519,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8537,7 +8547,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8565,7 +8575,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8593,7 +8603,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8621,7 +8631,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8649,7 +8659,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8677,7 +8687,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8705,7 +8715,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8733,7 +8743,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8761,7 +8771,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8789,7 +8799,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8817,7 +8827,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8845,7 +8855,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8873,7 +8883,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8901,7 +8911,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8929,7 +8939,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8957,7 +8967,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8985,7 +8995,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -9013,7 +9023,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -9041,7 +9051,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -9069,7 +9079,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -9097,7 +9107,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -9125,7 +9135,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -9153,7 +9163,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9181,7 +9191,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9209,7 +9219,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -9237,7 +9247,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -9265,7 +9275,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -9293,7 +9303,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -9321,7 +9331,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -9349,7 +9359,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -9377,7 +9387,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -9405,7 +9415,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -9433,7 +9443,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -9461,7 +9471,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -9489,7 +9499,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9517,761 +9527,823 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A45:G45"/>
+  <mergeCells count="96">
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
     <mergeCell ref="C51:E55"/>
     <mergeCell ref="F51:G55"/>
     <mergeCell ref="F46:G46"/>
@@ -10285,6 +10357,22 @@
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B55"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.22326454033771109" right="0.22326454033771109" top="0.20731707317073172" bottom="0.22326454033771109" header="0" footer="0"/>
